--- a/public/uploads/leads.xlsx
+++ b/public/uploads/leads.xlsx
@@ -19,21 +19,6 @@
     <t>SL</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
     <t>Sigma Technologies</t>
   </si>
   <si>
@@ -143,6 +128,21 @@
   </si>
   <si>
     <t>jungletv.com</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
 </sst>
 </file>
@@ -444,19 +444,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -470,16 +470,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2">
         <v>2120522368687</v>
@@ -496,16 +496,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2">
         <v>212522798585</v>
@@ -522,16 +522,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2">
         <v>4922194604754</v>
@@ -548,16 +548,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2">
         <v>49051159091970</v>
@@ -574,16 +574,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2">
         <v>33184178687</v>
@@ -600,16 +600,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2">
         <v>233369967</v>
@@ -626,19 +626,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -652,16 +652,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -676,16 +676,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2">
         <v>12105825316</v>
@@ -702,16 +702,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2">
         <v>19179230559</v>
@@ -728,16 +728,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2">
         <v>12063301049</v>
@@ -754,16 +754,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F13" s="2">
         <v>14028199019</v>
@@ -780,16 +780,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F14" s="2">
         <v>13015850068</v>
@@ -806,16 +806,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2">
         <v>18323960886</v>
@@ -832,16 +832,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2">
         <v>17723700043</v>
